--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\新增資料夾\新增資料夾 (2)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Web\GitHub\testProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016063EC-C4BC-4524-B97E-0B21E50D51F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F13095-CCEF-46F6-8FE5-8E025D4D34CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1110" windowWidth="18720" windowHeight="13335" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
+    <workbookView xWindow="-23910" yWindow="1335" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GeChic 攜帶型螢幕 On-Lap 1305H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Logitech momo racing 力回饋方向盤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,13 +106,6 @@
   </si>
   <si>
     <t>EPSON AR智慧眼鏡 Moverio-BT-40S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方介紹：
-https://gechic.com/wp-content/uploads/2019/10/1305H-ManualCN-190628-web.pdf
-介紹2：
-https://www.youtube.com/watch?v=w_YAwkAtvwk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,6 +317,21 @@
       </rPr>
       <t>😂</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeChic On-Lap 1503H IPS 攜帶型 15.6吋螢幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方介紹：
+https://gechic.com/wp-content/uploads/2019/12/1503EHI-Manual-CN-191205.pdf
+介紹：
+https://www.coolaler.com/gechic-on-lap-1503h-%E6%94%9C%E5%B8%B6%E5%9E%8B15-6%E5%90%8B%E8%9E%A2%E5%B9%95%E9%96%8B%E7%AE%B1%E8%A9%A6%E7%94%A8/
+介紹2：
+https://www.youtube.com/watch?v=TWaIvkBAcHQ
+介紹3：
+https://www.facebook.com/watch/?v=1233113853401908</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE215CEF-0362-4ABB-BECD-48602F7139CF}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -733,75 +737,75 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
@@ -812,13 +816,13 @@
         <v>7500</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -829,203 +833,203 @@
         <v>1200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>4000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>6500</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>2800</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>1200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>1600</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>1100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>3000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>25000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Web\GitHub\testProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F13095-CCEF-46F6-8FE5-8E025D4D34CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6859ED42-EE74-47A4-B31D-5AD6969C2336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23910" yWindow="1335" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
+    <workbookView xWindow="-29025" yWindow="1740" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>SANSUI山水 WIFI智能清淨除濕移動式空調</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOHZII康馳手提式全自動製冰機</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,14 +188,6 @@
   </si>
   <si>
     <t>masa joy pro 按摩椅墊.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動製冰機.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動製冰機2.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,12 +204,6 @@
 https://blog.andylain.com/2022/04/SWA-7900.html
 參考介紹2：
 https://gandan.me/sansui-stc880w/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本來想露營用，然後就在也沒去露營了...
-參考：
-https://24h.pchome.com.tw/prod/DMAY4V-A900GCBBJ?fq=/S/DMAYEC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,6 +314,17 @@
 https://www.youtube.com/watch?v=TWaIvkBAcHQ
 介紹3：
 https://www.facebook.com/watch/?v=1233113853401908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氣炸鍋.jpg</t>
+  </si>
+  <si>
+    <t>氣炸鍋2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arlink 小白同學2.5L氣炸鍋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +701,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -716,6 +709,8 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="49.25" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,75 +732,75 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1200</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
@@ -816,220 +811,218 @@
         <v>7500</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>4000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>6500</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>2800</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>1200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>1600</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
         <v>1100</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>3000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
         <v>25000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Web\GitHub\testProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6859ED42-EE74-47A4-B31D-5AD6969C2336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7F22F-CF51-49FE-9FF4-4771F6FAB24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29025" yWindow="1740" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
+    <workbookView xWindow="-26220" yWindow="1035" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>masa joy pro 按摩椅墊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIAO 碗*5 盤*5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,10 +110,6 @@
   </si>
   <si>
     <t>暴龍裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一隻250 有兩隻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,6 +317,91 @@
   </si>
   <si>
     <t>Arlink 小白同學2.5L氣炸鍋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIAO 十件組 (碗*5 盤*5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一隻250 兩隻450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acer 黑膠唱片播放機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acer黑膠唱片播放機.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照
+https://shopee.tw/product/96411279/41675506426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmixVAC-S真空管藍牙喇叭.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmixVAC-S真空管藍牙喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmixVAC-T環繞低音真空管桌上型藍牙雙喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmixVAC-T環繞低音真空管桌上型藍牙雙喇叭.jpg</t>
+  </si>
+  <si>
+    <t>OmixVAC-MX全音域環繞雙真空管重低音喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmixVAC-MX全音域環繞雙真空管重低音喇叭.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照
+https://www.yomix.com.tw/products/vac-mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI山水360°全音域真空管藍芽音響SS-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI山水360°全音域真空管藍芽音響SS-36.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOWGOF1露營燈藍牙喇叭.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOWGOF1露營燈藍牙喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://tw.buy.yahoo.com/gdsale/SANSUI%E5%B1%B1%E6%B0%B4-360-%E5%85%A8%E9%9F%B3%E5%9F%9F%E7%9C%9F%E7%A9%BA%E7%AE%A1%E8%97%8D%E8%8A%BD%E9%9F%B3%E9%9F%BF-S-8499198.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://24h.pchome.com.tw/prod/DMAF6I-A900GXIUW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://shopee.tw/product/116309859/3026018342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://tw.buy.yahoo.com/gdsale/OMIX-VAC-S%E5%85%A8%E9%9F%B3%E5%9F%9F%E7%84%A1%E7%B7%9A%E7%9C%9F%E7%A9%BA%E7%AE%A1%E5%96%87%E5%8F%AD-9190513.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE215CEF-0362-4ABB-BECD-48602F7139CF}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -732,75 +809,75 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
@@ -811,42 +888,42 @@
         <v>7500</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,16 +931,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,10 +951,10 @@
         <v>4000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -888,141 +965,215 @@
         <v>6500</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>800</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>2800</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>1200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>1600</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>1100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>700</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <v>3000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
         <v>25000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1">
+        <v>800</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="99" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Web\GitHub\testProj\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulkuo/Library/CloudStorage/Dropbox/暫存檔案/sell/未命名檔案夾/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7F22F-CF51-49FE-9FF4-4771F6FAB24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CFFB84-1BB9-084B-8450-5C81724D6C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="1035" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="26160" windowHeight="18460" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,23 +385,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>僅拆封拍照
+https://shopee.tw/product/390422407/17736289978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照
+https://shopee.tw/product/116309859/3026018342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照
+https://tw.buy.yahoo.com/gdsale/OMIX-VAC-S%E5%85%A8%E9%9F%B3%E5%9F%9F%E7%84%A1%E7%B7%9A%E7%9C%9F%E7%A9%BA%E7%AE%A1%E5%96%87%E5%8F%AD-9190513.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照
 https://tw.buy.yahoo.com/gdsale/SANSUI%E5%B1%B1%E6%B0%B4-360-%E5%85%A8%E9%9F%B3%E5%9F%9F%E7%9C%9F%E7%A9%BA%E7%AE%A1%E8%97%8D%E8%8A%BD%E9%9F%B3%E9%9F%BF-S-8499198.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-https://24h.pchome.com.tw/prod/DMAF6I-A900GXIUW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-https://shopee.tw/product/116309859/3026018342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-https://tw.buy.yahoo.com/gdsale/OMIX-VAC-S%E5%85%A8%E9%9F%B3%E5%9F%9F%E7%84%A1%E7%B7%9A%E7%9C%9F%E7%A9%BA%E7%AE%A1%E5%96%87%E5%8F%AD-9190513.html</t>
+    <t>94monsterRGB蒸汽朋克全音域電競音響3.0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94monsterRGB蒸汽朋克全音域電競音響3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94monsterRGB蒸汽朋克全音域電競音響3.02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaymaxX6碳纖維電動滑板車豪華款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaymaxX6碳纖維電動滑板車豪華款.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIZAI暖霸智慧控溫瞬熱電暖器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIZAI暖霸智慧控溫瞬熱電暖器.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI山水微型投影機SPJ-WD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI山水微型投影機SPJ-WD.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI山水智能掃拖掃地機器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI山水智能掃拖掃地機器人.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力板抖抖機律動機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力板抖抖機律動機.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://tzuhui99.pixnet.net/blog/posts/4044227046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://www.minipbigp.com/blog/2680/srv-a11/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://www.sansuitw.com/products/sansui-spj-wd-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://24h.pchome.com.tw/prod/DEBB52-A900C21DO
+https://tw.transcend-info.com/product/dashcam/drivepro-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrivePro 20機車行車記錄器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrivePro20機車行車記錄器.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://www.philo.com.tw/item/tp20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHILO TP20 無線電動打氣機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHILOTP20無線電動打氣機.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://upssmile.com/80116/frigidaire-air-purifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frigidaire智慧型空氣清淨機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frigidaire智慧型空氣清淨機.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒去露營了QQ
+https://24h.pchome.com.tw/prod/DCAIAL-A900JBX6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://ffwlife.tw/post-120567643/
+https://shopee.tw/no2vivien/22504201884
+末代碳纖維！之後都不出碳纖維了！
+https://www.facebook.com/share/p/1DXsgzxSpc/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考
+https://mizai99.cashier.ecpay.com.tw/product/000000000299707</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -775,22 +900,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE215CEF-0362-4ABB-BECD-48602F7139CF}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="49.25" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -821,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="35">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -835,7 +960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -852,7 +977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -866,7 +991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="48">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -880,7 +1005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="80">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,7 +1022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16">
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -912,7 +1037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="192">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -926,12 +1051,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
@@ -943,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,7 +1082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,7 +1099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16">
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -994,7 +1119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="16">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="16">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="32">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="16">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="32">
       <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1121,32 +1246,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="80">
       <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="32">
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="C23" s="1">
+        <v>2000</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="32">
       <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C24" s="1">
+        <v>3000</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1154,26 +1288,161 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="99" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="96">
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C25" s="1">
+        <v>3000</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="32">
       <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C26" s="1">
+        <v>2500</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="32">
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1">
+        <v>500</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="80">
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="48">
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>2500</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="32">
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="32">
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="32">
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="64">
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="32">
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1">
+        <v>700</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="32">
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulkuo/Library/CloudStorage/Dropbox/暫存檔案/sell/未命名檔案夾/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CFFB84-1BB9-084B-8450-5C81724D6C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E4F5BD-B9D5-8F4E-B9F5-7B4867D20918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="26160" windowHeight="18460" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,19 @@
   <si>
     <t>參考
 https://mizai99.cashier.ecpay.com.tw/product/000000000299707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕量濕拖無線吸塵器.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANSUI 山水 輕量濕拖無線吸塵器 全配組(SVC-W010)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照測試
+https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=11890189&amp;osm=Ad07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE215CEF-0362-4ABB-BECD-48602F7139CF}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1445,6 +1458,20 @@
         <v>109</v>
       </c>
     </row>
+    <row r="36" spans="2:5" ht="48">
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulkuo/Library/CloudStorage/Dropbox/暫存檔案/sell/未命名檔案夾/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Web\GitHub\testProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E4F5BD-B9D5-8F4E-B9F5-7B4867D20918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5056ED5-E6A0-4D73-96F3-7F0EE825F66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="26160" windowHeight="18460" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
+    <workbookView xWindow="-26220" yWindow="1035" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -915,20 +915,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE215CEF-0362-4ABB-BECD-48602F7139CF}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -959,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35">
+    <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -973,7 +973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="48">
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="80">
+    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="192">
+    <row r="9" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="32">
+    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="32">
+    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="80">
+    <row r="22" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="32">
+    <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="32">
+    <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="96">
+    <row r="25" spans="2:6" ht="99" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="32">
+    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="32">
+    <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="80">
+    <row r="28" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="48">
+    <row r="29" spans="2:6" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="32">
+    <row r="30" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="32">
+    <row r="31" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="32">
+    <row r="32" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="64">
+    <row r="33" spans="2:5" ht="66" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="32">
+    <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="32">
+    <row r="35" spans="2:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -1458,12 +1458,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="48">
+    <row r="36" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="1">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>115</v>

--- a/data/items.xlsx
+++ b/data/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Web\GitHub\testProj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5056ED5-E6A0-4D73-96F3-7F0EE825F66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C53233E-C0A9-4111-982C-791F7E93A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="1035" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
+    <workbookView xWindow="5925" yWindow="750" windowWidth="21585" windowHeight="14370" xr2:uid="{CE2EAC41-46D5-4916-BBDF-65F77E21BC69}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>項次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>masa joy 按摩椅墊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>masa joy pro 按摩椅墊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雙肩斜肩羽球拍袋羽毛球袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴龍裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">約兒 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,40 +109,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安妮雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一組($250)
-- 單假髮 ($150)
-- 單衣服 尺寸2XL ($150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴龍裝.JPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴龍裝2.JPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電視架.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雙肩斜肩羽球拍袋羽毛球袋 .jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>約兒.JPG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安妮雅.JPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>masa joy 按摩椅墊.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,14 +134,6 @@
   </si>
   <si>
     <t>全新拆封 發現家裡不適合  已組裝好 免安裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>masa joy pro 按摩椅墊2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>masa joy pro 按摩椅墊.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,32 +219,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>很舒服，但家裡不夠放了…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版進階版
-僅拆封拍照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sekc 真無線藍芽耳機.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>被朋友推坑羽球衝動就買了
-只用過兩三次，因為帶去公司太囂張結果都不敢帶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>😂</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,22 +238,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>氣炸鍋.jpg</t>
-  </si>
-  <si>
-    <t>氣炸鍋2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arlink 小白同學2.5L氣炸鍋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MIAO 十件組 (碗*5 盤*5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一隻250 兩隻450</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,26 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OmixVAC-T環繞低音真空管桌上型藍牙雙喇叭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OmixVAC-T環繞低音真空管桌上型藍牙雙喇叭.jpg</t>
-  </si>
-  <si>
-    <t>OmixVAC-MX全音域環繞雙真空管重低音喇叭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OmixVAC-MX全音域環繞雙真空管重低音喇叭.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅拆封拍照
-https://www.yomix.com.tw/products/vac-mx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SANSUI山水360°全音域真空管藍芽音響SS-36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,11 +285,6 @@
   </si>
   <si>
     <t>僅拆封拍照
-https://shopee.tw/product/116309859/3026018342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅拆封拍照
 https://tw.buy.yahoo.com/gdsale/OMIX-VAC-S%E5%85%A8%E9%9F%B3%E5%9F%9F%E7%84%A1%E7%B7%9A%E7%9C%9F%E7%A9%BA%E7%AE%A1%E5%96%87%E5%8F%AD-9190513.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,14 +311,6 @@
   </si>
   <si>
     <t>WaymaxX6碳纖維電動滑板車豪華款.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIZAI暖霸智慧控溫瞬熱電暖器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIZAI暖霸智慧控溫瞬熱電暖器.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,11 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>參考
-https://mizai99.cashier.ecpay.com.tw/product/000000000299707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>輕量濕拖無線吸塵器.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +416,19 @@
   <si>
     <t>僅拆封拍照測試
 https://www.momoshop.com.tw/goods/GoodsDetail.jsp?i_code=11890189&amp;osm=Ad07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅拆封拍照
+參考
+https://www.epson.com.tw/%E5%AE%B6%E7%94%A8%E7%B3%BB%E5%88%97/%E6%99%BA%E6%85%A7%E7%A9%BF%E6%88%B4%E8%A3%9D%E7%BD%AE/%E6%99%BA%E6%85%A7%E7%9C%BC%E9%8F%A1/Moverio-BT-40S/p/V11H969154
+https://www.mobile01.com/topicdetail.php?f=180&amp;t=6300217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很舒服，但家裡不夠放了…
+參考
+https://www.masalife.tw/products/joy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -562,12 +451,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -913,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE215CEF-0362-4ABB-BECD-48602F7139CF}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -947,529 +830,410 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1100</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>59</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>800</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>250</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>800</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>6500</v>
+        <v>1100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
+        <v>700</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
         <v>800</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2800</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1100</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="18" spans="2:6" ht="99" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C18" s="1">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="1">
-        <v>800</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C25" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="99" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="E25" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1">
+        <v>700</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29">
-        <v>2500</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="1">
-        <v>700</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
